--- a/gantt/gantt-chart-simple.xlsx
+++ b/gantt/gantt-chart-simple.xlsx
@@ -46,35 +46,7 @@
     <t xml:space="preserve">T1.1: Research on social behaviour DL concepts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1.2: Research on game difficulty </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adaptation concepts</t>
-    </r>
+    <t xml:space="preserve">T1.2: Research on game difficulty DL adaptation concepts</t>
   </si>
   <si>
     <t xml:space="preserve">T2.1: Selection of social behaviour DL architectures</t>
@@ -83,7 +55,7 @@
     <t xml:space="preserve">T2.2: Selection of the suitable datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">T2.3: Selection of the best performing model</t>
+    <t xml:space="preserve">T2.3: Selection of the best performing DL model</t>
   </si>
   <si>
     <t xml:space="preserve">T3.1: Adaptation of the chosen DL architecture</t>
@@ -117,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,12 +132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -247,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,14 +247,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,13 +327,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
@@ -386,7 +344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3890520" y="853200"/>
+          <a:off x="3900600" y="853200"/>
           <a:ext cx="1080" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -411,15 +369,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>259920</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -428,8 +386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659320" y="724320"/>
-          <a:ext cx="246960" cy="122760"/>
+          <a:off x="2620800" y="724320"/>
+          <a:ext cx="245520" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,15 +435,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>504720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -494,8 +452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3647520" y="730080"/>
-          <a:ext cx="246960" cy="122760"/>
+          <a:off x="3655800" y="725400"/>
+          <a:ext cx="245880" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,14 +500,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500760</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
@@ -560,7 +518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1892880" y="850680"/>
+          <a:off x="1824120" y="850680"/>
           <a:ext cx="1080" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -585,15 +543,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>37800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -602,8 +560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1649160" y="726120"/>
-          <a:ext cx="246960" cy="122760"/>
+          <a:off x="1580760" y="726120"/>
+          <a:ext cx="245520" cy="121680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,14 +608,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
@@ -668,7 +626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2904840" y="851040"/>
+          <a:off x="2865960" y="851040"/>
           <a:ext cx="1080" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -700,15 +658,15 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -776,6 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -837,7 +796,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7"/>
@@ -848,7 +807,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -859,18 +818,18 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -885,8 +844,9 @@
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="F18:G18"/>
